--- a/datasets/artists_names.xlsx
+++ b/datasets/artists_names.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1231"/>
+  <dimension ref="A1:B1272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12736,6 +12736,412 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Christina Perri</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Nick Jonas</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>shy martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>JPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Aleesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Vivart</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>Sarah Lashari</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>Chord Overstreet</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>Siddharth - Garima</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>RADWIMPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>Hansika Pareek</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>Arjit Shrivastava</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>Aviral Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>Shreyas</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>Vedang</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>Axwell /\ Ingrosso</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>Ananya Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Mohan Kannan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Sasha Alex Sloan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Pelly</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>Jaswinder Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>Bhuvan Bam</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>Riya Duggal</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>Andrew Garfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>Vanessa Hudgens</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>Joshua Henry</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>Alexandra Shipp</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>Robin de Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>MJ Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Boyce Avenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Emma Heesters</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Tanveer Evan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Ahmed Shakib</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Nushrratt Bharuccha</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Julie Bergan</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>SEUNGRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Georgia Ku</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Ahrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Hriday Gattani</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>WeWakeMusic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B1272" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
